--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mmp13</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>89.1237889860014</v>
+        <v>0.05706</v>
       </c>
       <c r="H2">
-        <v>89.1237889860014</v>
+        <v>0.17118</v>
       </c>
       <c r="I2">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="J2">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>607.9474298702893</v>
+        <v>0.4639682120399999</v>
       </c>
       <c r="R2">
-        <v>607.9474298702893</v>
+        <v>4.17571390836</v>
       </c>
       <c r="S2">
-        <v>0.01756750595901132</v>
+        <v>1.065226306014695E-05</v>
       </c>
       <c r="T2">
-        <v>0.01756750595901132</v>
+        <v>1.065226306014695E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>89.1237889860014</v>
+        <v>0.05706</v>
       </c>
       <c r="H3">
-        <v>89.1237889860014</v>
+        <v>0.17118</v>
       </c>
       <c r="I3">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="J3">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>21628.09523805685</v>
+        <v>13.88705730792</v>
       </c>
       <c r="R3">
-        <v>21628.09523805685</v>
+        <v>124.98351577128</v>
       </c>
       <c r="S3">
-        <v>0.624974583834813</v>
+        <v>0.0003188334539663389</v>
       </c>
       <c r="T3">
-        <v>0.624974583834813</v>
+        <v>0.000318833453966339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>89.1237889860014</v>
+        <v>0.05706</v>
       </c>
       <c r="H4">
-        <v>89.1237889860014</v>
+        <v>0.17118</v>
       </c>
       <c r="I4">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="J4">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>7871.540504142969</v>
+        <v>5.9309669433</v>
       </c>
       <c r="R4">
-        <v>7871.540504142969</v>
+        <v>53.3787024897</v>
       </c>
       <c r="S4">
-        <v>0.2274593623047876</v>
+        <v>0.0001361692858294793</v>
       </c>
       <c r="T4">
-        <v>0.2274593623047876</v>
+        <v>0.0001361692858294794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>89.1237889860014</v>
+        <v>0.05706</v>
       </c>
       <c r="H5">
-        <v>89.1237889860014</v>
+        <v>0.17118</v>
       </c>
       <c r="I5">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="J5">
-        <v>0.9420580425165975</v>
+        <v>0.0005094349886539115</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>2493.61628520522</v>
+        <v>1.90687383696</v>
       </c>
       <c r="R5">
-        <v>2493.61628520522</v>
+        <v>17.16186453264</v>
       </c>
       <c r="S5">
-        <v>0.07205659041798548</v>
+        <v>4.377998579794617E-05</v>
       </c>
       <c r="T5">
-        <v>0.07205659041798548</v>
+        <v>4.377998579794618E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.48162274416935</v>
+        <v>105.405112</v>
       </c>
       <c r="H6">
-        <v>5.48162274416935</v>
+        <v>316.215336</v>
       </c>
       <c r="I6">
-        <v>0.05794195748340259</v>
+        <v>0.9410629519064889</v>
       </c>
       <c r="J6">
-        <v>0.05794195748340259</v>
+        <v>0.941062951906489</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>37.39224394240821</v>
+        <v>857.0736304682079</v>
       </c>
       <c r="R6">
-        <v>37.39224394240821</v>
+        <v>7713.662674213871</v>
       </c>
       <c r="S6">
-        <v>0.001080502089496807</v>
+        <v>0.0196775846636567</v>
       </c>
       <c r="T6">
-        <v>0.001080502089496807</v>
+        <v>0.01967758466365671</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.48162274416935</v>
+        <v>105.405112</v>
       </c>
       <c r="H7">
-        <v>5.48162274416935</v>
+        <v>316.215336</v>
       </c>
       <c r="I7">
-        <v>0.05794195748340259</v>
+        <v>0.9410629519064889</v>
       </c>
       <c r="J7">
-        <v>0.05794195748340259</v>
+        <v>0.941062951906489</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>1330.251553697015</v>
+        <v>25653.11655961665</v>
       </c>
       <c r="R7">
-        <v>1330.251553697015</v>
+        <v>230878.0490365499</v>
       </c>
       <c r="S7">
-        <v>0.03843951129383406</v>
+        <v>0.5889708363944759</v>
       </c>
       <c r="T7">
-        <v>0.03843951129383406</v>
+        <v>0.5889708363944761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.48162274416935</v>
+        <v>105.405112</v>
       </c>
       <c r="H8">
-        <v>5.48162274416935</v>
+        <v>316.215336</v>
       </c>
       <c r="I8">
-        <v>0.05794195748340259</v>
+        <v>0.9410629519064889</v>
       </c>
       <c r="J8">
-        <v>0.05794195748340259</v>
+        <v>0.941062951906489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>484.1447603393266</v>
+        <v>10956.08543510049</v>
       </c>
       <c r="R8">
-        <v>484.1447603393266</v>
+        <v>98604.76891590444</v>
       </c>
       <c r="S8">
-        <v>0.01399005167946822</v>
+        <v>0.2515411641047368</v>
       </c>
       <c r="T8">
-        <v>0.01399005167946822</v>
+        <v>0.2515411641047369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>105.405112</v>
+      </c>
+      <c r="H9">
+        <v>316.215336</v>
+      </c>
+      <c r="I9">
+        <v>0.9410629519064889</v>
+      </c>
+      <c r="J9">
+        <v>0.941062951906489</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N9">
+        <v>100.256248</v>
+      </c>
+      <c r="O9">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P9">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q9">
+        <v>3522.507016379925</v>
+      </c>
+      <c r="R9">
+        <v>31702.56314741933</v>
+      </c>
+      <c r="S9">
+        <v>0.08087336674361943</v>
+      </c>
+      <c r="T9">
+        <v>0.08087336674361946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.289842333333333</v>
+      </c>
+      <c r="H10">
+        <v>18.869527</v>
+      </c>
+      <c r="I10">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="J10">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.131233999999999</v>
+      </c>
+      <c r="N10">
+        <v>24.393702</v>
+      </c>
+      <c r="O10">
+        <v>0.02090995573015822</v>
+      </c>
+      <c r="P10">
+        <v>0.02090995573015823</v>
+      </c>
+      <c r="Q10">
+        <v>51.14417983543932</v>
+      </c>
+      <c r="R10">
+        <v>460.2976185189539</v>
+      </c>
+      <c r="S10">
+        <v>0.001174221085550563</v>
+      </c>
+      <c r="T10">
+        <v>0.001174221085550563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.289842333333333</v>
+      </c>
+      <c r="H11">
+        <v>18.869527</v>
+      </c>
+      <c r="I11">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="J11">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N11">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O11">
+        <v>0.625857000534647</v>
+      </c>
+      <c r="P11">
+        <v>0.6258570005346471</v>
+      </c>
+      <c r="Q11">
+        <v>1530.79917526781</v>
+      </c>
+      <c r="R11">
+        <v>13777.19257741029</v>
+      </c>
+      <c r="S11">
+        <v>0.03514567395794537</v>
+      </c>
+      <c r="T11">
+        <v>0.03514567395794538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.289842333333333</v>
+      </c>
+      <c r="H12">
+        <v>18.869527</v>
+      </c>
+      <c r="I12">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="J12">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>103.9426383333333</v>
+      </c>
+      <c r="N12">
+        <v>311.827915</v>
+      </c>
+      <c r="O12">
+        <v>0.2672947262403034</v>
+      </c>
+      <c r="P12">
+        <v>0.2672947262403035</v>
+      </c>
+      <c r="Q12">
+        <v>653.782806827356</v>
+      </c>
+      <c r="R12">
+        <v>5884.045261446205</v>
+      </c>
+      <c r="S12">
+        <v>0.01501022324763452</v>
+      </c>
+      <c r="T12">
+        <v>0.01501022324763453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.289842333333333</v>
+      </c>
+      <c r="H13">
+        <v>18.869527</v>
+      </c>
+      <c r="I13">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="J13">
+        <v>0.05615607707179387</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N13">
+        <v>100.256248</v>
+      </c>
+      <c r="O13">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P13">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q13">
+        <v>210.1986642838551</v>
+      </c>
+      <c r="R13">
+        <v>1891.787978554696</v>
+      </c>
+      <c r="S13">
+        <v>0.004825958780663405</v>
+      </c>
+      <c r="T13">
+        <v>0.004825958780663406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5.48162274416935</v>
-      </c>
-      <c r="H9">
-        <v>5.48162274416935</v>
-      </c>
-      <c r="I9">
-        <v>0.05794195748340259</v>
-      </c>
-      <c r="J9">
-        <v>0.05794195748340259</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>27.979244526923</v>
-      </c>
-      <c r="N9">
-        <v>27.979244526923</v>
-      </c>
-      <c r="O9">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="P9">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="Q9">
-        <v>153.3716631634569</v>
-      </c>
-      <c r="R9">
-        <v>153.3716631634569</v>
-      </c>
-      <c r="S9">
-        <v>0.00443189242060349</v>
-      </c>
-      <c r="T9">
-        <v>0.00443189242060349</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2544266666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.76328</v>
+      </c>
+      <c r="I14">
+        <v>0.002271536033063193</v>
+      </c>
+      <c r="J14">
+        <v>0.002271536033063194</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.131233999999999</v>
+      </c>
+      <c r="N14">
+        <v>24.393702</v>
+      </c>
+      <c r="O14">
+        <v>0.02090995573015822</v>
+      </c>
+      <c r="P14">
+        <v>0.02090995573015823</v>
+      </c>
+      <c r="Q14">
+        <v>2.068802762506666</v>
+      </c>
+      <c r="R14">
+        <v>18.61922486256</v>
+      </c>
+      <c r="S14">
+        <v>4.74977178908106E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.749771789081062E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2544266666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.76328</v>
+      </c>
+      <c r="I15">
+        <v>0.002271536033063193</v>
+      </c>
+      <c r="J15">
+        <v>0.002271536033063194</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N15">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O15">
+        <v>0.625857000534647</v>
+      </c>
+      <c r="P15">
+        <v>0.6258570005346471</v>
+      </c>
+      <c r="Q15">
+        <v>61.92144585809778</v>
+      </c>
+      <c r="R15">
+        <v>557.29301272288</v>
+      </c>
+      <c r="S15">
+        <v>0.001421656728259301</v>
+      </c>
+      <c r="T15">
+        <v>0.001421656728259301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2544266666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.76328</v>
+      </c>
+      <c r="I16">
+        <v>0.002271536033063193</v>
+      </c>
+      <c r="J16">
+        <v>0.002271536033063194</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>103.9426383333333</v>
+      </c>
+      <c r="N16">
+        <v>311.827915</v>
+      </c>
+      <c r="O16">
+        <v>0.2672947262403034</v>
+      </c>
+      <c r="P16">
+        <v>0.2672947262403035</v>
+      </c>
+      <c r="Q16">
+        <v>26.44577899568889</v>
+      </c>
+      <c r="R16">
+        <v>238.0120109612</v>
+      </c>
+      <c r="S16">
+        <v>0.0006071696021026111</v>
+      </c>
+      <c r="T16">
+        <v>0.0006071696021026113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2544266666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.76328</v>
+      </c>
+      <c r="I17">
+        <v>0.002271536033063193</v>
+      </c>
+      <c r="J17">
+        <v>0.002271536033063194</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N17">
+        <v>100.256248</v>
+      </c>
+      <c r="O17">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P17">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q17">
+        <v>8.502620997048886</v>
+      </c>
+      <c r="R17">
+        <v>76.52358897344</v>
+      </c>
+      <c r="S17">
+        <v>0.0001952119848104705</v>
+      </c>
+      <c r="T17">
+        <v>0.0001952119848104706</v>
       </c>
     </row>
   </sheetData>
